--- a/REyeker-DataAnalyses-Python/results/data_of_all.xlsx
+++ b/REyeker-DataAnalyses-Python/results/data_of_all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5298" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="29">
   <si>
     <t>Subject</t>
   </si>
@@ -535,7 +535,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -555,7 +555,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>231.5157232704402</v>
+        <v>760</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -613,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -691,7 +691,7 @@
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -717,7 +717,7 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>9</v>
       </c>
       <c r="E21">
-        <v>231.5157232704402</v>
+        <v>786</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1101,7 +1101,7 @@
         <v>9</v>
       </c>
       <c r="E25">
-        <v>231.5157232704402</v>
+        <v>729</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -1855,7 +1855,7 @@
         <v>9</v>
       </c>
       <c r="E54">
-        <v>231.5157232704402</v>
+        <v>7</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
@@ -1959,7 +1959,7 @@
         <v>9</v>
       </c>
       <c r="E58">
-        <v>231.5157232704402</v>
+        <v>1287</v>
       </c>
       <c r="F58" t="s">
         <v>13</v>
@@ -2505,7 +2505,7 @@
         <v>9</v>
       </c>
       <c r="E79">
-        <v>231.5157232704402</v>
+        <v>10</v>
       </c>
       <c r="F79" t="s">
         <v>14</v>
@@ -2667,7 +2667,7 @@
         <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2771,7 +2771,7 @@
         <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
@@ -3135,7 +3135,7 @@
         <v>15</v>
       </c>
       <c r="G103" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H103" t="b">
         <v>1</v>
@@ -3155,7 +3155,7 @@
         <v>9</v>
       </c>
       <c r="E104">
-        <v>231.5157232704402</v>
+        <v>1554</v>
       </c>
       <c r="F104" t="s">
         <v>15</v>
@@ -3213,7 +3213,7 @@
         <v>16</v>
       </c>
       <c r="G106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H106" t="b">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         <v>9</v>
       </c>
       <c r="E109">
-        <v>231.5157232704402</v>
+        <v>1243</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
@@ -3343,7 +3343,7 @@
         <v>16</v>
       </c>
       <c r="G111" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H111" t="b">
         <v>1</v>
@@ -3363,7 +3363,7 @@
         <v>9</v>
       </c>
       <c r="E112">
-        <v>231.5157232704402</v>
+        <v>866</v>
       </c>
       <c r="F112" t="s">
         <v>16</v>
@@ -3421,7 +3421,7 @@
         <v>16</v>
       </c>
       <c r="G114" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H114" t="b">
         <v>1</v>
@@ -3447,7 +3447,7 @@
         <v>16</v>
       </c>
       <c r="G115" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H115" t="b">
         <v>0</v>
@@ -3473,7 +3473,7 @@
         <v>16</v>
       </c>
       <c r="G116" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H116" t="b">
         <v>1</v>
@@ -3577,7 +3577,7 @@
         <v>17</v>
       </c>
       <c r="G120" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H120" t="b">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>9</v>
       </c>
       <c r="E127">
-        <v>231.5157232704402</v>
+        <v>746</v>
       </c>
       <c r="F127" t="s">
         <v>17</v>
@@ -4071,7 +4071,7 @@
         <v>18</v>
       </c>
       <c r="G139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H139" t="b">
         <v>1</v>
@@ -4357,7 +4357,7 @@
         <v>18</v>
       </c>
       <c r="G150" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H150" t="b">
         <v>0</v>
@@ -4461,7 +4461,7 @@
         <v>18</v>
       </c>
       <c r="G154" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H154" t="b">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         <v>9</v>
       </c>
       <c r="E158">
-        <v>231.5157232704402</v>
+        <v>739</v>
       </c>
       <c r="F158" t="s">
         <v>18</v>
@@ -4955,7 +4955,7 @@
         <v>11</v>
       </c>
       <c r="G173" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H173" t="b">
         <v>1</v>
@@ -5371,7 +5371,7 @@
         <v>12</v>
       </c>
       <c r="G189" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H189" t="b">
         <v>0</v>
@@ -5605,7 +5605,7 @@
         <v>12</v>
       </c>
       <c r="G198" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H198" t="b">
         <v>1</v>
@@ -5813,7 +5813,7 @@
         <v>13</v>
       </c>
       <c r="G206" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H206" t="b">
         <v>1</v>
@@ -6515,7 +6515,7 @@
         <v>14</v>
       </c>
       <c r="G233" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H233" t="b">
         <v>1</v>
@@ -6541,7 +6541,7 @@
         <v>14</v>
       </c>
       <c r="G234" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H234" t="b">
         <v>1</v>
@@ -7009,7 +7009,7 @@
         <v>14</v>
       </c>
       <c r="G252" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H252" t="b">
         <v>1</v>
@@ -7133,7 +7133,7 @@
         <v>9</v>
       </c>
       <c r="E257">
-        <v>231.475</v>
+        <v>1277</v>
       </c>
       <c r="F257" t="s">
         <v>15</v>
@@ -7321,7 +7321,7 @@
         <v>15</v>
       </c>
       <c r="G264" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H264" t="b">
         <v>1</v>
@@ -7419,7 +7419,7 @@
         <v>9</v>
       </c>
       <c r="E268">
-        <v>231.475</v>
+        <v>1094</v>
       </c>
       <c r="F268" t="s">
         <v>16</v>
@@ -7523,7 +7523,7 @@
         <v>9</v>
       </c>
       <c r="E272">
-        <v>231.475</v>
+        <v>9</v>
       </c>
       <c r="F272" t="s">
         <v>16</v>
@@ -7581,7 +7581,7 @@
         <v>16</v>
       </c>
       <c r="G274" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H274" t="b">
         <v>1</v>
@@ -7601,7 +7601,7 @@
         <v>9</v>
       </c>
       <c r="E275">
-        <v>231.475</v>
+        <v>924</v>
       </c>
       <c r="F275" t="s">
         <v>16</v>
@@ -7763,7 +7763,7 @@
         <v>17</v>
       </c>
       <c r="G281" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H281" t="b">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>17</v>
       </c>
       <c r="G282" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H282" t="b">
         <v>1</v>
@@ -7809,7 +7809,7 @@
         <v>9</v>
       </c>
       <c r="E283">
-        <v>231.475</v>
+        <v>877</v>
       </c>
       <c r="F283" t="s">
         <v>17</v>
@@ -7997,7 +7997,7 @@
         <v>17</v>
       </c>
       <c r="G290" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H290" t="b">
         <v>0</v>
@@ -8121,7 +8121,7 @@
         <v>9</v>
       </c>
       <c r="E295">
-        <v>231.475</v>
+        <v>824</v>
       </c>
       <c r="F295" t="s">
         <v>18</v>
@@ -8303,7 +8303,7 @@
         <v>9</v>
       </c>
       <c r="E302">
-        <v>231.475</v>
+        <v>948</v>
       </c>
       <c r="F302" t="s">
         <v>18</v>
@@ -8563,7 +8563,7 @@
         <v>9</v>
       </c>
       <c r="E312">
-        <v>231.475</v>
+        <v>1726</v>
       </c>
       <c r="F312" t="s">
         <v>18</v>
@@ -8725,7 +8725,7 @@
         <v>18</v>
       </c>
       <c r="G318" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H318" t="b">
         <v>0</v>
@@ -8875,7 +8875,7 @@
         <v>10</v>
       </c>
       <c r="E324">
-        <v>174.760736196319</v>
+        <v>799</v>
       </c>
       <c r="F324" t="s">
         <v>11</v>
@@ -8933,7 +8933,7 @@
         <v>11</v>
       </c>
       <c r="G326" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H326" t="b">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>11</v>
       </c>
       <c r="G329" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H329" t="b">
         <v>0</v>
@@ -9037,7 +9037,7 @@
         <v>11</v>
       </c>
       <c r="G330" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H330" t="b">
         <v>0</v>
@@ -9115,7 +9115,7 @@
         <v>11</v>
       </c>
       <c r="G333" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H333" t="b">
         <v>1</v>
@@ -9655,7 +9655,7 @@
         <v>10</v>
       </c>
       <c r="E354">
-        <v>174.760736196319</v>
+        <v>4</v>
       </c>
       <c r="F354" t="s">
         <v>12</v>
@@ -10649,7 +10649,7 @@
         <v>14</v>
       </c>
       <c r="G392" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H392" t="b">
         <v>1</v>
@@ -10721,7 +10721,7 @@
         <v>10</v>
       </c>
       <c r="E395">
-        <v>174.760736196319</v>
+        <v>706</v>
       </c>
       <c r="F395" t="s">
         <v>14</v>
@@ -10987,7 +10987,7 @@
         <v>14</v>
       </c>
       <c r="G405" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H405" t="b">
         <v>0</v>
@@ -11273,7 +11273,7 @@
         <v>14</v>
       </c>
       <c r="G416" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H416" t="b">
         <v>1</v>
@@ -11559,7 +11559,7 @@
         <v>15</v>
       </c>
       <c r="G427" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H427" t="b">
         <v>0</v>
@@ -11585,7 +11585,7 @@
         <v>15</v>
       </c>
       <c r="G428" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H428" t="b">
         <v>1</v>
@@ -11663,7 +11663,7 @@
         <v>15</v>
       </c>
       <c r="G431" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H431" t="b">
         <v>0</v>
@@ -11761,7 +11761,7 @@
         <v>10</v>
       </c>
       <c r="E435">
-        <v>174.760736196319</v>
+        <v>756</v>
       </c>
       <c r="F435" t="s">
         <v>16</v>
@@ -11793,7 +11793,7 @@
         <v>16</v>
       </c>
       <c r="G436" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H436" t="b">
         <v>1</v>
@@ -11813,7 +11813,7 @@
         <v>10</v>
       </c>
       <c r="E437">
-        <v>174.760736196319</v>
+        <v>675</v>
       </c>
       <c r="F437" t="s">
         <v>16</v>
@@ -11845,7 +11845,7 @@
         <v>16</v>
       </c>
       <c r="G438" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H438" t="b">
         <v>1</v>
@@ -11923,7 +11923,7 @@
         <v>16</v>
       </c>
       <c r="G441" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H441" t="b">
         <v>1</v>
@@ -11943,7 +11943,7 @@
         <v>10</v>
       </c>
       <c r="E442">
-        <v>174.760736196319</v>
+        <v>1172</v>
       </c>
       <c r="F442" t="s">
         <v>16</v>
@@ -12001,7 +12001,7 @@
         <v>17</v>
       </c>
       <c r="G444" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H444" t="b">
         <v>0</v>
@@ -12073,7 +12073,7 @@
         <v>10</v>
       </c>
       <c r="E447">
-        <v>174.760736196319</v>
+        <v>748</v>
       </c>
       <c r="F447" t="s">
         <v>17</v>
@@ -12281,7 +12281,7 @@
         <v>10</v>
       </c>
       <c r="E455">
-        <v>174.760736196319</v>
+        <v>828</v>
       </c>
       <c r="F455" t="s">
         <v>17</v>
@@ -12333,7 +12333,7 @@
         <v>10</v>
       </c>
       <c r="E457">
-        <v>174.760736196319</v>
+        <v>762</v>
       </c>
       <c r="F457" t="s">
         <v>17</v>
@@ -12359,7 +12359,7 @@
         <v>10</v>
       </c>
       <c r="E458">
-        <v>174.760736196319</v>
+        <v>965</v>
       </c>
       <c r="F458" t="s">
         <v>17</v>
@@ -12677,7 +12677,7 @@
         <v>18</v>
       </c>
       <c r="G470" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H470" t="b">
         <v>1</v>
@@ -12749,7 +12749,7 @@
         <v>10</v>
       </c>
       <c r="E473">
-        <v>174.760736196319</v>
+        <v>895</v>
       </c>
       <c r="F473" t="s">
         <v>18</v>
@@ -12775,7 +12775,7 @@
         <v>10</v>
       </c>
       <c r="E474">
-        <v>174.760736196319</v>
+        <v>5</v>
       </c>
       <c r="F474" t="s">
         <v>18</v>
@@ -12911,7 +12911,7 @@
         <v>18</v>
       </c>
       <c r="G479" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H479" t="b">
         <v>1</v>
@@ -12931,7 +12931,7 @@
         <v>10</v>
       </c>
       <c r="E480">
-        <v>174.760736196319</v>
+        <v>592</v>
       </c>
       <c r="F480" t="s">
         <v>18</v>
@@ -12989,7 +12989,7 @@
         <v>18</v>
       </c>
       <c r="G482" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H482" t="b">
         <v>0</v>
@@ -13015,7 +13015,7 @@
         <v>18</v>
       </c>
       <c r="G483" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H483" t="b">
         <v>0</v>
@@ -13113,7 +13113,7 @@
         <v>10</v>
       </c>
       <c r="E487">
-        <v>241.4880952380952</v>
+        <v>1053</v>
       </c>
       <c r="F487" t="s">
         <v>11</v>
@@ -13327,7 +13327,7 @@
         <v>11</v>
       </c>
       <c r="G495" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H495" t="b">
         <v>1</v>
@@ -13353,7 +13353,7 @@
         <v>11</v>
       </c>
       <c r="G496" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H496" t="b">
         <v>0</v>
@@ -13477,7 +13477,7 @@
         <v>10</v>
       </c>
       <c r="E501">
-        <v>241.4880952380952</v>
+        <v>1994</v>
       </c>
       <c r="F501" t="s">
         <v>12</v>
@@ -13607,7 +13607,7 @@
         <v>10</v>
       </c>
       <c r="E506">
-        <v>241.4880952380952</v>
+        <v>1147</v>
       </c>
       <c r="F506" t="s">
         <v>12</v>
@@ -13997,7 +13997,7 @@
         <v>10</v>
       </c>
       <c r="E521">
-        <v>241.4880952380952</v>
+        <v>10</v>
       </c>
       <c r="F521" t="s">
         <v>12</v>
@@ -14075,7 +14075,7 @@
         <v>10</v>
       </c>
       <c r="E524">
-        <v>241.4880952380952</v>
+        <v>1967</v>
       </c>
       <c r="F524" t="s">
         <v>12</v>
@@ -14185,7 +14185,7 @@
         <v>12</v>
       </c>
       <c r="G528" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H528" t="b">
         <v>1</v>
@@ -14575,7 +14575,7 @@
         <v>13</v>
       </c>
       <c r="G543" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H543" t="b">
         <v>0</v>
@@ -15173,7 +15173,7 @@
         <v>14</v>
       </c>
       <c r="G566" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H566" t="b">
         <v>1</v>
@@ -15531,7 +15531,7 @@
         <v>10</v>
       </c>
       <c r="E580">
-        <v>241.4880952380952</v>
+        <v>3735</v>
       </c>
       <c r="F580" t="s">
         <v>14</v>
@@ -15797,7 +15797,7 @@
         <v>15</v>
       </c>
       <c r="G590" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H590" t="b">
         <v>0</v>
@@ -15849,7 +15849,7 @@
         <v>15</v>
       </c>
       <c r="G592" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H592" t="b">
         <v>1</v>
@@ -16213,7 +16213,7 @@
         <v>16</v>
       </c>
       <c r="G606" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H606" t="b">
         <v>0</v>
@@ -16395,7 +16395,7 @@
         <v>16</v>
       </c>
       <c r="G613" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H613" t="b">
         <v>1</v>
@@ -16473,7 +16473,7 @@
         <v>17</v>
       </c>
       <c r="G616" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H616" t="b">
         <v>0</v>
@@ -16499,7 +16499,7 @@
         <v>17</v>
       </c>
       <c r="G617" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H617" t="b">
         <v>0</v>
@@ -16655,7 +16655,7 @@
         <v>17</v>
       </c>
       <c r="G623" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H623" t="b">
         <v>0</v>
@@ -16681,7 +16681,7 @@
         <v>17</v>
       </c>
       <c r="G624" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H624" t="b">
         <v>0</v>
@@ -16993,7 +16993,7 @@
         <v>18</v>
       </c>
       <c r="G636" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H636" t="b">
         <v>1</v>
@@ -17433,16 +17433,16 @@
         <v>27</v>
       </c>
       <c r="D2">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="E2">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F2">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="G2">
-        <v>89</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -17456,16 +17456,16 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="E3">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="F3">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="G3">
-        <v>67</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -17482,13 +17482,13 @@
         <v>232</v>
       </c>
       <c r="E4">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F4">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="G4">
-        <v>94</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -17502,16 +17502,16 @@
         <v>28</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="G5">
-        <v>70</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -17525,16 +17525,16 @@
         <v>27</v>
       </c>
       <c r="D6">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F6">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G6">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -17548,16 +17548,16 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7">
         <v>36</v>
       </c>
       <c r="F7">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="G7">
-        <v>67</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -17571,16 +17571,16 @@
         <v>27</v>
       </c>
       <c r="D8">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="E8">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="F8">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="G8">
-        <v>101</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -17594,16 +17594,16 @@
         <v>28</v>
       </c>
       <c r="D9">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F9">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="G9">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -17617,16 +17617,16 @@
         <v>27</v>
       </c>
       <c r="D10">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="E10">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F10">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -17640,16 +17640,16 @@
         <v>28</v>
       </c>
       <c r="D11">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="E11">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F11">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="G11">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -17663,16 +17663,16 @@
         <v>27</v>
       </c>
       <c r="D12">
-        <v>201</v>
+        <v>311</v>
       </c>
       <c r="E12">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="F12">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="G12">
-        <v>112</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -17686,16 +17686,16 @@
         <v>28</v>
       </c>
       <c r="D13">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="E13">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="F13">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="G13">
-        <v>103</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -17709,16 +17709,16 @@
         <v>27</v>
       </c>
       <c r="D14">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="E14">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="F14">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="G14">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -17732,16 +17732,16 @@
         <v>28</v>
       </c>
       <c r="D15">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E15">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F15">
-        <v>174</v>
+        <v>272</v>
       </c>
       <c r="G15">
-        <v>94</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -17755,16 +17755,16 @@
         <v>27</v>
       </c>
       <c r="D16">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="F16">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="G16">
-        <v>86</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -17778,16 +17778,16 @@
         <v>28</v>
       </c>
       <c r="D17">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="E17">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="F17">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G17">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -17801,16 +17801,16 @@
         <v>27</v>
       </c>
       <c r="D18">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="E18">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="F18">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="G18">
-        <v>95</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -17824,16 +17824,16 @@
         <v>28</v>
       </c>
       <c r="D19">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E19">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="F19">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="G19">
-        <v>84</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -17880,16 +17880,16 @@
         <v>27</v>
       </c>
       <c r="D2">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="E2">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="F2">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="G2">
-        <v>89</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -17903,16 +17903,16 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="E3">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="F3">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="G3">
-        <v>70</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -17932,10 +17932,10 @@
         <v>86</v>
       </c>
       <c r="F4">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="G4">
-        <v>98</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -17949,16 +17949,16 @@
         <v>28</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="G5">
-        <v>74</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -17972,16 +17972,16 @@
         <v>27</v>
       </c>
       <c r="D6">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E6">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F6">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G6">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -17995,16 +17995,16 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7">
         <v>36</v>
       </c>
       <c r="F7">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="G7">
-        <v>65</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -18018,16 +18018,16 @@
         <v>27</v>
       </c>
       <c r="D8">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="E8">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="F8">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="G8">
-        <v>103</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -18041,16 +18041,16 @@
         <v>28</v>
       </c>
       <c r="D9">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F9">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="G9">
-        <v>90</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -18064,16 +18064,16 @@
         <v>27</v>
       </c>
       <c r="D10">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="E10">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F10">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -18087,16 +18087,16 @@
         <v>28</v>
       </c>
       <c r="D11">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="E11">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F11">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="G11">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -18110,16 +18110,16 @@
         <v>27</v>
       </c>
       <c r="D12">
-        <v>206</v>
+        <v>319</v>
       </c>
       <c r="E12">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="F12">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="G12">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -18133,16 +18133,16 @@
         <v>28</v>
       </c>
       <c r="D13">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="E13">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="F13">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="G13">
-        <v>108</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -18156,16 +18156,16 @@
         <v>27</v>
       </c>
       <c r="D14">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="E14">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="F14">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="G14">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -18185,10 +18185,10 @@
         <v>92</v>
       </c>
       <c r="F15">
-        <v>169</v>
+        <v>272</v>
       </c>
       <c r="G15">
-        <v>106</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -18202,16 +18202,16 @@
         <v>27</v>
       </c>
       <c r="D16">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="F16">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="G16">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -18225,16 +18225,16 @@
         <v>28</v>
       </c>
       <c r="D17">
+        <v>164</v>
+      </c>
+      <c r="E17">
         <v>123</v>
       </c>
-      <c r="E17">
-        <v>71</v>
-      </c>
       <c r="F17">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G17">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -18248,16 +18248,16 @@
         <v>27</v>
       </c>
       <c r="D18">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="E18">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F18">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="G18">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -18271,16 +18271,16 @@
         <v>28</v>
       </c>
       <c r="D19">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E19">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F19">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="G19">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/REyeker-DataAnalyses-Python/results/data_of_all.xlsx
+++ b/REyeker-DataAnalyses-Python/results/data_of_all.xlsx
@@ -99,10 +99,10 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Top-Down</t>
+    <t>Bottom-Up</t>
   </si>
   <si>
-    <t>Bottom-Up</t>
+    <t>Top-Down</t>
   </si>
 </sst>
 </file>
@@ -17798,7 +17798,7 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18">
         <v>186</v>
@@ -17821,7 +17821,7 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19">
         <v>131</v>
@@ -17877,7 +17877,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>391</v>
@@ -17900,7 +17900,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3">
         <v>226</v>
@@ -17923,7 +17923,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>232</v>
@@ -17946,7 +17946,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>36</v>
@@ -17969,7 +17969,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>88</v>
@@ -17992,7 +17992,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>78</v>
@@ -18015,7 +18015,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>171</v>
@@ -18038,7 +18038,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>161</v>
@@ -18061,7 +18061,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>167</v>
@@ -18084,7 +18084,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>157</v>
@@ -18107,7 +18107,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <v>319</v>
@@ -18130,7 +18130,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>196</v>
@@ -18153,7 +18153,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <v>182</v>
@@ -18176,7 +18176,7 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15">
         <v>133</v>
@@ -18199,7 +18199,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16">
         <v>155</v>
@@ -18222,7 +18222,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17">
         <v>164</v>
@@ -18245,7 +18245,7 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18">
         <v>213</v>
@@ -18268,7 +18268,7 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19">
         <v>143</v>

--- a/REyeker-DataAnalyses-Python/results/data_of_all.xlsx
+++ b/REyeker-DataAnalyses-Python/results/data_of_all.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Dokumente\GitHub\REyeker\REyeker-DataAnalyses-Python\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EA5532-B6F7-4B89-81BF-ADF61B438304}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="labeled" sheetId="1" r:id="rId1"/>
     <sheet name="corrects.info" sheetId="2" r:id="rId2"/>
-    <sheet name="corrects.weighted_info" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="35">
   <si>
     <t>Subject</t>
   </si>
@@ -84,10 +89,28 @@
     <t>notNormal</t>
   </si>
   <si>
+    <t>rec correct</t>
+  </si>
+  <si>
+    <t>rec total Answers</t>
+  </si>
+  <si>
+    <t>rec percent</t>
+  </si>
+  <si>
     <t>R_ResponseTimeMean</t>
   </si>
   <si>
     <t>R_ResponseTimeDeviation</t>
+  </si>
+  <si>
+    <t>it correct</t>
+  </si>
+  <si>
+    <t>it total Answers</t>
+  </si>
+  <si>
+    <t>it percent</t>
   </si>
   <si>
     <t>I_ResponseTimeMean</t>
@@ -108,8 +131,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,22 +187,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -218,7 +256,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -250,9 +288,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,6 +340,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -459,14 +533,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H651"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -515,7 +589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -541,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -567,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -593,7 +667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -619,7 +693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -645,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -671,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -697,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -723,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -749,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -775,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -801,7 +875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -827,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -853,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -879,7 +953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -905,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -931,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -957,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -983,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1009,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1035,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1061,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1087,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1113,7 +1187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1139,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1165,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1191,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1217,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1243,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1269,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1295,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1321,7 +1395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1347,7 +1421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1373,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1399,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1425,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1451,7 +1525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1477,7 +1551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1503,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1529,7 +1603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1555,7 +1629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1581,7 +1655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1607,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1633,7 +1707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1659,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1685,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1711,7 +1785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1737,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1763,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1789,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1815,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1841,7 +1915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1867,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1893,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1919,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1945,7 +2019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1971,7 +2045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1997,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2023,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2049,7 +2123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2075,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2101,7 +2175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2127,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2153,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2179,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2205,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2231,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2257,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2283,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2309,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2335,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2361,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2387,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2413,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2439,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2465,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2491,7 +2565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2517,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2543,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2569,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2595,7 +2669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2621,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2647,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2673,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2699,7 +2773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2725,7 +2799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2751,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2777,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2803,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2829,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2855,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2881,7 +2955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2907,7 +2981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2933,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2959,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2985,7 +3059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3011,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3037,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3063,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3089,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3115,7 +3189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3141,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3167,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3193,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3219,7 +3293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3245,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3271,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3297,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3323,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3349,7 +3423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3375,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3401,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3427,7 +3501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3453,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3479,7 +3553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3505,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3531,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3557,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3583,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3609,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3635,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3661,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3687,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3713,7 +3787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3739,7 +3813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3765,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3791,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3817,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3843,7 +3917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3869,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3895,7 +3969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3921,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3947,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3973,7 +4047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3999,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4025,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4051,7 +4125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4077,7 +4151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4103,7 +4177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4129,7 +4203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4155,7 +4229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4181,7 +4255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4207,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4233,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4259,7 +4333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4285,7 +4359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4311,7 +4385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4337,7 +4411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4363,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4389,7 +4463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4415,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4441,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -4467,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4493,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4519,7 +4593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4545,7 +4619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4571,7 +4645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4597,7 +4671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4623,7 +4697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4649,7 +4723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4675,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4701,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4727,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4753,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4779,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4805,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4831,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4857,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4883,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4909,7 +4983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4935,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4961,7 +5035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4987,7 +5061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -5013,7 +5087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -5039,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -5065,7 +5139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -5091,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -5117,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5143,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -5169,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -5195,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -5221,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5247,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5273,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -5299,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -5325,7 +5399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -5351,7 +5425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -5377,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -5403,7 +5477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -5429,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -5455,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -5481,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -5507,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -5533,7 +5607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -5559,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -5585,7 +5659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -5611,7 +5685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -5637,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -5663,7 +5737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -5689,7 +5763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -5715,7 +5789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -5741,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -5767,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -5793,7 +5867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -5819,7 +5893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -5845,7 +5919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -5871,7 +5945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -5897,7 +5971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -5923,7 +5997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -5949,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -5975,7 +6049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -6001,7 +6075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -6027,7 +6101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -6053,7 +6127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -6079,7 +6153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -6105,7 +6179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -6131,7 +6205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -6157,7 +6231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -6183,7 +6257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -6209,7 +6283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -6235,7 +6309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -6261,7 +6335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -6287,7 +6361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -6313,7 +6387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -6339,7 +6413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -6365,7 +6439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -6391,7 +6465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -6417,7 +6491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -6443,7 +6517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -6469,7 +6543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -6495,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -6521,7 +6595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -6547,7 +6621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -6573,7 +6647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -6599,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -6625,7 +6699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -6651,7 +6725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -6677,7 +6751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -6703,7 +6777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -6729,7 +6803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -6755,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -6781,7 +6855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -6807,7 +6881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -6833,7 +6907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -6859,7 +6933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -6885,7 +6959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -6911,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -6937,7 +7011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -6963,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -6989,7 +7063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -7015,7 +7089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -7041,7 +7115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -7067,7 +7141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -7093,7 +7167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -7119,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -7145,7 +7219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -7171,7 +7245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -7197,7 +7271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -7223,7 +7297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -7249,7 +7323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -7275,7 +7349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -7301,7 +7375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -7327,7 +7401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -7353,7 +7427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -7379,7 +7453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -7405,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -7431,7 +7505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -7457,7 +7531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -7483,7 +7557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -7509,7 +7583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -7535,7 +7609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -7561,7 +7635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -7587,7 +7661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -7613,7 +7687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -7639,7 +7713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -7665,7 +7739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -7691,7 +7765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -7717,7 +7791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -7743,7 +7817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -7769,7 +7843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -7795,7 +7869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -7821,7 +7895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -7847,7 +7921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -7873,7 +7947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -7899,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -7925,7 +7999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -7951,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -7977,7 +8051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -8003,7 +8077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -8029,7 +8103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -8055,7 +8129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -8081,7 +8155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -8107,7 +8181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -8133,7 +8207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -8159,7 +8233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -8185,7 +8259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -8211,7 +8285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -8237,7 +8311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -8263,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -8289,7 +8363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -8315,7 +8389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -8341,7 +8415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -8367,7 +8441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -8393,7 +8467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -8419,7 +8493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -8445,7 +8519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -8471,7 +8545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -8497,7 +8571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -8523,7 +8597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -8549,7 +8623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -8575,7 +8649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -8601,7 +8675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -8627,7 +8701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -8653,7 +8727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -8679,7 +8753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -8705,7 +8779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -8731,7 +8805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -8757,7 +8831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -8783,7 +8857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -8809,7 +8883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -8835,7 +8909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -8861,7 +8935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -8887,7 +8961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -8913,7 +8987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -8939,7 +9013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -8965,7 +9039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -8991,7 +9065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -9017,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -9043,7 +9117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -9069,7 +9143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -9095,7 +9169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -9121,7 +9195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -9147,7 +9221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -9173,7 +9247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -9199,7 +9273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -9225,7 +9299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -9251,7 +9325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -9277,7 +9351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -9303,7 +9377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -9329,7 +9403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -9355,7 +9429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -9381,7 +9455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -9407,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -9433,7 +9507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -9459,7 +9533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -9485,7 +9559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -9511,7 +9585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -9537,7 +9611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -9563,7 +9637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -9589,7 +9663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -9615,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -9641,7 +9715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -9667,7 +9741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -9693,7 +9767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -9719,7 +9793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -9745,7 +9819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -9771,7 +9845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -9797,7 +9871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -9823,7 +9897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -9849,7 +9923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -9875,7 +9949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -9901,7 +9975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -9927,7 +10001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -9953,7 +10027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -9979,7 +10053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -10005,7 +10079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -10031,7 +10105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -10057,7 +10131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -10083,7 +10157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -10109,7 +10183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -10135,7 +10209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -10161,7 +10235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -10187,7 +10261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -10213,7 +10287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -10239,7 +10313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -10265,7 +10339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -10291,7 +10365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -10317,7 +10391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -10343,7 +10417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -10369,7 +10443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -10395,7 +10469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -10421,7 +10495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -10447,7 +10521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -10473,7 +10547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -10499,7 +10573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -10525,7 +10599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -10551,7 +10625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -10577,7 +10651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -10603,7 +10677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -10629,7 +10703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -10655,7 +10729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -10681,7 +10755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -10707,7 +10781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -10733,7 +10807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -10759,7 +10833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -10785,7 +10859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -10811,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -10837,7 +10911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -10863,7 +10937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -10889,7 +10963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -10915,7 +10989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -10941,7 +11015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -10967,7 +11041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -10993,7 +11067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -11019,7 +11093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -11045,7 +11119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -11071,7 +11145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -11097,7 +11171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -11123,7 +11197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -11149,7 +11223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -11175,7 +11249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -11201,7 +11275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -11227,7 +11301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -11253,7 +11327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -11279,7 +11353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -11305,7 +11379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -11331,7 +11405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -11357,7 +11431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -11383,7 +11457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -11409,7 +11483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -11435,7 +11509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -11461,7 +11535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -11487,7 +11561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -11513,7 +11587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -11539,7 +11613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -11565,7 +11639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -11591,7 +11665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -11617,7 +11691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -11643,7 +11717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -11669,7 +11743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -11695,7 +11769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -11721,7 +11795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -11747,7 +11821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -11773,7 +11847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -11799,7 +11873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -11825,7 +11899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -11851,7 +11925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -11877,7 +11951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -11903,7 +11977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -11929,7 +12003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -11955,7 +12029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -11981,7 +12055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -12007,7 +12081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -12033,7 +12107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -12059,7 +12133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -12085,7 +12159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -12111,7 +12185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -12137,7 +12211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -12163,7 +12237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -12189,7 +12263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -12215,7 +12289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -12241,7 +12315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -12267,7 +12341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:8">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -12293,7 +12367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:8">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -12319,7 +12393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:8">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -12345,7 +12419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -12371,7 +12445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:8">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -12397,7 +12471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -12423,7 +12497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -12449,7 +12523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -12475,7 +12549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -12501,7 +12575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -12527,7 +12601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -12553,7 +12627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -12579,7 +12653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -12605,7 +12679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -12631,7 +12705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -12657,7 +12731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -12683,7 +12757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -12709,7 +12783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -12735,7 +12809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -12761,7 +12835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -12787,7 +12861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -12813,7 +12887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -12839,7 +12913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -12865,7 +12939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -12891,7 +12965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -12917,7 +12991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -12943,7 +13017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -12969,7 +13043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -12995,7 +13069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -13021,7 +13095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -13047,7 +13121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -13073,7 +13147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -13099,7 +13173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -13125,7 +13199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -13151,7 +13225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -13177,7 +13251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -13203,7 +13277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -13229,7 +13303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:8">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -13255,7 +13329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:8">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -13281,7 +13355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:8">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -13307,7 +13381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -13333,7 +13407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:8">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -13359,7 +13433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -13385,7 +13459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -13411,7 +13485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -13437,7 +13511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -13463,7 +13537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -13489,7 +13563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -13515,7 +13589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -13541,7 +13615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -13567,7 +13641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -13593,7 +13667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -13619,7 +13693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -13645,7 +13719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -13671,7 +13745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -13697,7 +13771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -13723,7 +13797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -13749,7 +13823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -13775,7 +13849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -13801,7 +13875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -13827,7 +13901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -13853,7 +13927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -13879,7 +13953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -13905,7 +13979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -13931,7 +14005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -13957,7 +14031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -13983,7 +14057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -14009,7 +14083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -14035,7 +14109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -14061,7 +14135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -14087,7 +14161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -14113,7 +14187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -14139,7 +14213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -14165,7 +14239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -14191,7 +14265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:8">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -14217,7 +14291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:8">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -14243,7 +14317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:8">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -14269,7 +14343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -14295,7 +14369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:8">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -14321,7 +14395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -14347,7 +14421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -14373,7 +14447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -14399,7 +14473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -14425,7 +14499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -14451,7 +14525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -14477,7 +14551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -14503,7 +14577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -14529,7 +14603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -14555,7 +14629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -14581,7 +14655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -14607,7 +14681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:8">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -14633,7 +14707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:8">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -14659,7 +14733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:8">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -14685,7 +14759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -14711,7 +14785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:8">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -14737,7 +14811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:8">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -14763,7 +14837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:8">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -14789,7 +14863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:8">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -14815,7 +14889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:8">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -14841,7 +14915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:8">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -14867,7 +14941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:8">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -14893,7 +14967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:8">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -14919,7 +14993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:8">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -14945,7 +15019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:8">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -14971,7 +15045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:8">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -14997,7 +15071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:8">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -15023,7 +15097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:8">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -15049,7 +15123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:8">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -15075,7 +15149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:8">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -15101,7 +15175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:8">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -15127,7 +15201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:8">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -15153,7 +15227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:8">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -15179,7 +15253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:8">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -15205,7 +15279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:8">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -15231,7 +15305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:8">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -15257,7 +15331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:8">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -15283,7 +15357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:8">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -15309,7 +15383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:8">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -15335,7 +15409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:8">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -15361,7 +15435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:8">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -15387,7 +15461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:8">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -15413,7 +15487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:8">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -15439,7 +15513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:8">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -15465,7 +15539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:8">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -15491,7 +15565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:8">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -15517,7 +15591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:8">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -15543,7 +15617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:8">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -15569,7 +15643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:8">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -15595,7 +15669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:8">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -15621,7 +15695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:8">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -15647,7 +15721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:8">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -15673,7 +15747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:8">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -15699,7 +15773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:8">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -15725,7 +15799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:8">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -15751,7 +15825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:8">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -15777,7 +15851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:8">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -15803,7 +15877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:8">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -15829,7 +15903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:8">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -15855,7 +15929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:8">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -15881,7 +15955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:8">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -15907,7 +15981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:8">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -15933,7 +16007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:8">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -15959,7 +16033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:8">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -15985,7 +16059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:8">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -16011,7 +16085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:8">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -16037,7 +16111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:8">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -16063,7 +16137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:8">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -16089,7 +16163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:8">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -16115,7 +16189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:8">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -16141,7 +16215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:8">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -16167,7 +16241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:8">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -16193,7 +16267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:8">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -16219,7 +16293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:8">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -16245,7 +16319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:8">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -16271,7 +16345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:8">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -16297,7 +16371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:8">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -16323,7 +16397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:8">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -16349,7 +16423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:8">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -16375,7 +16449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:8">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -16401,7 +16475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:8">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -16427,7 +16501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:8">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -16453,7 +16527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:8">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -16479,7 +16553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:8">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -16505,7 +16579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:8">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -16531,7 +16605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:8">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -16557,7 +16631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:8">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -16583,7 +16657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:8">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -16609,7 +16683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:8">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -16635,7 +16709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:8">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -16661,7 +16735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:8">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -16687,7 +16761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:8">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -16713,7 +16787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:8">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -16739,7 +16813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:8">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -16765,7 +16839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:8">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -16791,7 +16865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:8">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -16817,7 +16891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:8">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -16843,7 +16917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:8">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -16869,7 +16943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:8">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -16895,7 +16969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:8">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -16921,7 +16995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:8">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -16947,7 +17021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:8">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -16973,7 +17047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:8">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -16999,7 +17073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:8">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -17025,7 +17099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:8">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -17051,7 +17125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:8">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -17077,7 +17151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:8">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -17103,7 +17177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:8">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -17129,7 +17203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:8">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -17155,7 +17229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:8">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -17181,7 +17255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:8">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -17207,7 +17281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:8">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -17233,7 +17307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:8">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -17259,7 +17333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:8">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -17285,7 +17359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:8">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -17311,7 +17385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:8">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -17337,7 +17411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:8">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -17363,7 +17437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:8">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -17395,14 +17469,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="11" max="11" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17415,14 +17495,32 @@
       <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -17430,22 +17528,40 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G2">
         <v>368</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>157</v>
       </c>
-      <c r="F2">
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.15384615384615391</v>
+      </c>
+      <c r="L2">
         <v>187</v>
       </c>
-      <c r="G2">
+      <c r="M2">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -17453,22 +17569,40 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.23076923076923081</v>
+      </c>
+      <c r="G3">
         <v>226</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>126</v>
       </c>
-      <c r="F3">
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>16</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="L3">
         <v>211</v>
       </c>
-      <c r="G3">
+      <c r="M3">
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -17476,22 +17610,40 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="G4">
         <v>232</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>84</v>
       </c>
-      <c r="F4">
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>25</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="L4">
         <v>204</v>
       </c>
-      <c r="G4">
+      <c r="M4">
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -17499,22 +17651,40 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
         <v>28</v>
       </c>
-      <c r="D5">
+      <c r="F5" s="3">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="G5">
         <v>36</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>39</v>
       </c>
-      <c r="F5">
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>29</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="L5">
         <v>222</v>
       </c>
-      <c r="G5">
+      <c r="M5">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -17522,22 +17692,40 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
         <v>27</v>
       </c>
-      <c r="D6">
+      <c r="F6" s="3">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G6">
         <v>93</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>66</v>
       </c>
-      <c r="F6">
+      <c r="I6">
+        <v>26</v>
+      </c>
+      <c r="J6">
+        <v>29</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="L6">
         <v>127</v>
       </c>
-      <c r="G6">
+      <c r="M6">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -17545,22 +17733,40 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="G7">
         <v>78</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>36</v>
       </c>
-      <c r="F7">
+      <c r="I7">
+        <v>18</v>
+      </c>
+      <c r="J7">
+        <v>26</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="L7">
         <v>112</v>
       </c>
-      <c r="G7">
+      <c r="M7">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -17568,22 +17774,40 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="G8">
         <v>174</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>136</v>
       </c>
-      <c r="F8">
+      <c r="I8">
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <v>24</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="L8">
         <v>212</v>
       </c>
-      <c r="G8">
+      <c r="M8">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -17591,22 +17815,40 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
         <v>28</v>
       </c>
-      <c r="D9">
+      <c r="F9" s="3">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="G9">
         <v>161</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>79</v>
       </c>
-      <c r="F9">
+      <c r="I9">
+        <v>23</v>
+      </c>
+      <c r="J9">
+        <v>27</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.85185185185185186</v>
+      </c>
+      <c r="L9">
         <v>182</v>
       </c>
-      <c r="G9">
+      <c r="M9">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -17614,22 +17856,40 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.42857142857142849</v>
+      </c>
+      <c r="G10">
         <v>167</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>113</v>
       </c>
-      <c r="F10">
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="L10">
         <v>224</v>
       </c>
-      <c r="G10">
+      <c r="M10">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -17637,22 +17897,40 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="G11">
         <v>157</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>101</v>
       </c>
-      <c r="F11">
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>13</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="L11">
         <v>207</v>
       </c>
-      <c r="G11">
+      <c r="M11">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -17660,22 +17938,40 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.36363636363636359</v>
+      </c>
+      <c r="G12">
         <v>311</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>220</v>
       </c>
-      <c r="F12">
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="L12">
         <v>212</v>
       </c>
-      <c r="G12">
+      <c r="M12">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -17683,22 +17979,40 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="G13">
         <v>191</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>130</v>
       </c>
-      <c r="F13">
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>13</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.23076923076923081</v>
+      </c>
+      <c r="L13">
         <v>215</v>
       </c>
-      <c r="G13">
+      <c r="M13">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -17706,22 +18020,40 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.1875</v>
+      </c>
+      <c r="G14">
         <v>185</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>100</v>
       </c>
-      <c r="F14">
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>14</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="L14">
         <v>273</v>
       </c>
-      <c r="G14">
+      <c r="M14">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -17729,22 +18061,40 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G15">
         <v>142</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>82</v>
       </c>
-      <c r="F15">
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.45454545454545447</v>
+      </c>
+      <c r="L15">
         <v>272</v>
       </c>
-      <c r="G15">
+      <c r="M15">
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -17752,22 +18102,40 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>26</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="G16">
         <v>158</v>
       </c>
-      <c r="E16">
+      <c r="H16">
         <v>120</v>
       </c>
-      <c r="F16">
+      <c r="I16">
+        <v>22</v>
+      </c>
+      <c r="J16">
+        <v>28</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L16">
         <v>170</v>
       </c>
-      <c r="G16">
+      <c r="M16">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -17775,515 +18143,164 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>24</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
         <v>165</v>
       </c>
-      <c r="E17">
+      <c r="H17">
         <v>115</v>
       </c>
-      <c r="F17">
+      <c r="I17">
+        <v>22</v>
+      </c>
+      <c r="J17">
+        <v>25</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="L17">
         <v>140</v>
       </c>
-      <c r="G17">
+      <c r="M17">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D18">
+        <v>82</v>
+      </c>
+      <c r="E18">
+        <v>151</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.54304635761589404</v>
+      </c>
+      <c r="G18">
         <v>186</v>
       </c>
-      <c r="E18">
+      <c r="H18">
         <v>135</v>
       </c>
-      <c r="F18">
+      <c r="I18">
+        <v>92</v>
+      </c>
+      <c r="J18">
+        <v>152</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.60526315789473684</v>
+      </c>
+      <c r="L18">
         <v>191</v>
       </c>
-      <c r="G18">
+      <c r="M18">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D19">
+        <v>90</v>
+      </c>
+      <c r="E19">
+        <v>155</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.58064516129032262</v>
+      </c>
+      <c r="G19">
         <v>131</v>
       </c>
-      <c r="E19">
+      <c r="H19">
         <v>103</v>
       </c>
-      <c r="F19">
+      <c r="I19">
+        <v>107</v>
+      </c>
+      <c r="J19">
+        <v>160</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.66874999999999996</v>
+      </c>
+      <c r="L19">
         <v>185</v>
       </c>
-      <c r="G19">
+      <c r="M19">
         <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>172</v>
+      </c>
+      <c r="E20">
+        <v>306</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.56209150326797386</v>
+      </c>
+      <c r="G20">
+        <v>158</v>
+      </c>
+      <c r="H20">
+        <v>123</v>
+      </c>
+      <c r="I20">
+        <v>199</v>
+      </c>
+      <c r="J20">
+        <v>312</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.63782051282051277</v>
+      </c>
+      <c r="L20">
+        <v>188</v>
+      </c>
+      <c r="M20">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2">
-        <v>391</v>
-      </c>
-      <c r="E2">
-        <v>158</v>
-      </c>
-      <c r="F2">
-        <v>187</v>
-      </c>
-      <c r="G2">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3">
-        <v>226</v>
-      </c>
-      <c r="E3">
-        <v>126</v>
-      </c>
-      <c r="F3">
-        <v>209</v>
-      </c>
-      <c r="G3">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4">
-        <v>232</v>
-      </c>
-      <c r="E4">
-        <v>86</v>
-      </c>
-      <c r="F4">
-        <v>204</v>
-      </c>
-      <c r="G4">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5">
-        <v>36</v>
-      </c>
-      <c r="E5">
-        <v>39</v>
-      </c>
-      <c r="F5">
-        <v>220</v>
-      </c>
-      <c r="G5">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6">
-        <v>88</v>
-      </c>
-      <c r="E6">
-        <v>61</v>
-      </c>
-      <c r="F6">
-        <v>127</v>
-      </c>
-      <c r="G6">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7">
-        <v>78</v>
-      </c>
-      <c r="E7">
-        <v>36</v>
-      </c>
-      <c r="F7">
-        <v>112</v>
-      </c>
-      <c r="G7">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8">
-        <v>171</v>
-      </c>
-      <c r="E8">
-        <v>138</v>
-      </c>
-      <c r="F8">
-        <v>212</v>
-      </c>
-      <c r="G8">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9">
-        <v>161</v>
-      </c>
-      <c r="E9">
-        <v>79</v>
-      </c>
-      <c r="F9">
-        <v>179</v>
-      </c>
-      <c r="G9">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10">
-        <v>167</v>
-      </c>
-      <c r="E10">
-        <v>113</v>
-      </c>
-      <c r="F10">
-        <v>224</v>
-      </c>
-      <c r="G10">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11">
-        <v>157</v>
-      </c>
-      <c r="E11">
-        <v>101</v>
-      </c>
-      <c r="F11">
-        <v>207</v>
-      </c>
-      <c r="G11">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12">
-        <v>319</v>
-      </c>
-      <c r="E12">
-        <v>231</v>
-      </c>
-      <c r="F12">
-        <v>208</v>
-      </c>
-      <c r="G12">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13">
-        <v>196</v>
-      </c>
-      <c r="E13">
-        <v>149</v>
-      </c>
-      <c r="F13">
-        <v>215</v>
-      </c>
-      <c r="G13">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14">
-        <v>182</v>
-      </c>
-      <c r="E14">
-        <v>102</v>
-      </c>
-      <c r="F14">
-        <v>276</v>
-      </c>
-      <c r="G14">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15">
-        <v>133</v>
-      </c>
-      <c r="E15">
-        <v>92</v>
-      </c>
-      <c r="F15">
-        <v>272</v>
-      </c>
-      <c r="G15">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16">
-        <v>155</v>
-      </c>
-      <c r="E16">
-        <v>121</v>
-      </c>
-      <c r="F16">
-        <v>162</v>
-      </c>
-      <c r="G16">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17">
-        <v>164</v>
-      </c>
-      <c r="E17">
-        <v>123</v>
-      </c>
-      <c r="F17">
-        <v>140</v>
-      </c>
-      <c r="G17">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18">
-        <v>213</v>
-      </c>
-      <c r="E18">
-        <v>97</v>
-      </c>
-      <c r="F18">
-        <v>200</v>
-      </c>
-      <c r="G18">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19">
-        <v>143</v>
-      </c>
-      <c r="E19">
-        <v>61</v>
-      </c>
-      <c r="F19">
-        <v>194</v>
-      </c>
-      <c r="G19">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/REyeker-DataAnalyses-Python/results/data_of_all.xlsx
+++ b/REyeker-DataAnalyses-Python/results/data_of_all.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Dokumente\GitHub\REyeker\REyeker-DataAnalyses-Python\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EA5532-B6F7-4B89-81BF-ADF61B438304}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="labeled" sheetId="1" r:id="rId1"/>
     <sheet name="corrects.info" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -131,11 +125,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,34 +178,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -256,7 +235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,27 +267,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,24 +301,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -533,14 +476,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H651"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -589,7 +532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -615,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -641,7 +584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -667,7 +610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -693,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -719,7 +662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -745,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -771,7 +714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -797,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -823,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -849,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -875,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -901,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -927,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -979,7 +922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1005,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1031,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1057,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1083,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1109,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1135,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1161,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1187,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1213,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1239,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1265,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1291,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1317,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1343,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1369,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1395,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1421,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1447,7 +1390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1473,7 +1416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1499,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1525,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1551,7 +1494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1577,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1603,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1629,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1655,7 +1598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1681,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1707,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1733,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1759,7 +1702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1785,7 +1728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1811,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1837,7 +1780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1863,7 +1806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1889,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1915,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1941,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1967,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1993,7 +1936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2019,7 +1962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2045,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2071,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2097,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2123,7 +2066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2149,7 +2092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2175,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2201,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2227,7 +2170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2253,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2279,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2305,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2331,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2357,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2383,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2409,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2435,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2461,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2487,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2513,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2539,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2565,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2591,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2617,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2643,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2669,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2695,7 +2638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2721,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2747,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2773,7 +2716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2799,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2825,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2851,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2877,7 +2820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2903,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2929,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2955,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2981,7 +2924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3007,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3033,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3059,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3085,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3111,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3137,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3163,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3189,7 +3132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3215,7 +3158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3241,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3267,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3293,7 +3236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3319,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3345,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3371,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3397,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3423,7 +3366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3449,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3475,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3501,7 +3444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3527,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3553,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3579,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3605,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3631,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3657,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3683,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3709,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3735,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3761,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3787,7 +3730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3813,7 +3756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3839,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3865,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3891,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3917,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3943,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3969,7 +3912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3995,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4021,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4047,7 +3990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4073,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4099,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4125,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4151,7 +4094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4177,7 +4120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4203,7 +4146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4229,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4255,7 +4198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4281,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4307,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4333,7 +4276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4359,7 +4302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4385,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4411,7 +4354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4437,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4463,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4489,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4515,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -4541,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4567,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4593,7 +4536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4619,7 +4562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4645,7 +4588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4671,7 +4614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4697,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4723,7 +4666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4749,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4775,7 +4718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4801,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4827,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4853,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4879,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4905,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4931,7 +4874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4957,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4983,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -5009,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -5035,7 +4978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -5061,7 +5004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -5087,7 +5030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -5113,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -5139,7 +5082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -5165,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -5191,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5217,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -5243,7 +5186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -5269,7 +5212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -5295,7 +5238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5321,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5347,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -5373,7 +5316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -5399,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -5425,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -5451,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -5477,7 +5420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -5503,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -5529,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -5555,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -5581,7 +5524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -5607,7 +5550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -5633,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -5659,7 +5602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -5685,7 +5628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -5711,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -5737,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -5763,7 +5706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -5789,7 +5732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -5815,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -5841,7 +5784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -5867,7 +5810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -5893,7 +5836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -5919,7 +5862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -5945,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -5971,7 +5914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -5997,7 +5940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -6023,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -6049,7 +5992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -6075,7 +6018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -6101,7 +6044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -6127,7 +6070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -6153,7 +6096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -6179,7 +6122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -6205,7 +6148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -6231,7 +6174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -6257,7 +6200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -6283,7 +6226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -6309,7 +6252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -6335,7 +6278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -6361,7 +6304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -6387,7 +6330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -6413,7 +6356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -6439,7 +6382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -6465,7 +6408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -6491,7 +6434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -6517,7 +6460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -6543,7 +6486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -6569,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -6595,7 +6538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -6621,7 +6564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -6647,7 +6590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -6673,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -6699,7 +6642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -6725,7 +6668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -6751,7 +6694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -6777,7 +6720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -6803,7 +6746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -6829,7 +6772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -6855,7 +6798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -6881,7 +6824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -6907,7 +6850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -6933,7 +6876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -6959,7 +6902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -6985,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -7011,7 +6954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -7037,7 +6980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -7063,7 +7006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -7089,7 +7032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -7115,7 +7058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -7141,7 +7084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -7167,7 +7110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -7193,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -7219,7 +7162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -7245,7 +7188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -7271,7 +7214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -7297,7 +7240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -7323,7 +7266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -7349,7 +7292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -7375,7 +7318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -7401,7 +7344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -7427,7 +7370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -7453,7 +7396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -7479,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -7505,7 +7448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -7531,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -7557,7 +7500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -7583,7 +7526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -7609,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -7635,7 +7578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -7661,7 +7604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -7687,7 +7630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -7713,7 +7656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -7739,7 +7682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -7765,7 +7708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -7791,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -7817,7 +7760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -7843,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -7869,7 +7812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -7895,7 +7838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -7921,7 +7864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -7947,7 +7890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -7973,7 +7916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -7999,7 +7942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -8025,7 +7968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -8051,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -8077,7 +8020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -8103,7 +8046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -8129,7 +8072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -8155,7 +8098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -8181,7 +8124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -8207,7 +8150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -8233,7 +8176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -8259,7 +8202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -8285,7 +8228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -8311,7 +8254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -8337,7 +8280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -8363,7 +8306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -8389,7 +8332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -8415,7 +8358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -8441,7 +8384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -8467,7 +8410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -8493,7 +8436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -8519,7 +8462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -8545,7 +8488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -8571,7 +8514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -8597,7 +8540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -8623,7 +8566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -8649,7 +8592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -8675,7 +8618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -8701,7 +8644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -8727,7 +8670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -8753,7 +8696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -8779,7 +8722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -8805,7 +8748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -8831,7 +8774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -8857,7 +8800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -8883,7 +8826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -8909,7 +8852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -8935,7 +8878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -8961,7 +8904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -8987,7 +8930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -9013,7 +8956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -9039,7 +8982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -9065,7 +9008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -9091,7 +9034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -9117,7 +9060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -9143,7 +9086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -9169,7 +9112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -9195,7 +9138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -9221,7 +9164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -9247,7 +9190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -9273,7 +9216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -9299,7 +9242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -9325,7 +9268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -9351,7 +9294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -9377,7 +9320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -9403,7 +9346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -9429,7 +9372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -9455,7 +9398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -9481,7 +9424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -9507,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -9533,7 +9476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -9559,7 +9502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -9585,7 +9528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -9611,7 +9554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -9637,7 +9580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -9663,7 +9606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -9689,7 +9632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -9715,7 +9658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -9741,7 +9684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -9767,7 +9710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -9793,7 +9736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -9819,7 +9762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -9845,7 +9788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -9871,7 +9814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -9897,7 +9840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -9923,7 +9866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -9949,7 +9892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -9975,7 +9918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -10001,7 +9944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -10027,7 +9970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -10053,7 +9996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -10079,7 +10022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -10105,7 +10048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -10131,7 +10074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -10157,7 +10100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -10183,7 +10126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -10209,7 +10152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -10235,7 +10178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -10261,7 +10204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -10287,7 +10230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -10313,7 +10256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -10339,7 +10282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -10365,7 +10308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -10391,7 +10334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -10417,7 +10360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -10443,7 +10386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -10469,7 +10412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -10495,7 +10438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -10521,7 +10464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -10547,7 +10490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -10573,7 +10516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -10599,7 +10542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -10625,7 +10568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -10651,7 +10594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -10677,7 +10620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -10703,7 +10646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -10729,7 +10672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -10755,7 +10698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -10781,7 +10724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -10807,7 +10750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -10833,7 +10776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -10859,7 +10802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -10885,7 +10828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -10911,7 +10854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -10937,7 +10880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -10963,7 +10906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -10989,7 +10932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -11015,7 +10958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -11041,7 +10984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -11067,7 +11010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -11093,7 +11036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -11119,7 +11062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -11145,7 +11088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -11171,7 +11114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -11197,7 +11140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -11223,7 +11166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -11249,7 +11192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -11275,7 +11218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -11301,7 +11244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -11327,7 +11270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -11353,7 +11296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -11379,7 +11322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -11405,7 +11348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -11431,7 +11374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -11457,7 +11400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -11483,7 +11426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -11509,7 +11452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -11535,7 +11478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -11561,7 +11504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -11587,7 +11530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -11613,7 +11556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -11639,7 +11582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -11665,7 +11608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -11691,7 +11634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -11717,7 +11660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -11743,7 +11686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -11769,7 +11712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -11795,7 +11738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -11821,7 +11764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -11847,7 +11790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -11873,7 +11816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -11899,7 +11842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -11925,7 +11868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -11951,7 +11894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -11977,7 +11920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -12003,7 +11946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -12029,7 +11972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -12055,7 +11998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -12081,7 +12024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -12107,7 +12050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -12133,7 +12076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -12159,7 +12102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -12185,7 +12128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -12211,7 +12154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -12237,7 +12180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -12263,7 +12206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -12289,7 +12232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -12315,7 +12258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -12341,7 +12284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -12367,7 +12310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -12393,7 +12336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -12419,7 +12362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -12445,7 +12388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -12471,7 +12414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -12497,7 +12440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -12523,7 +12466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -12549,7 +12492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -12575,7 +12518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -12601,7 +12544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -12627,7 +12570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -12653,7 +12596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -12679,7 +12622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -12705,7 +12648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -12731,7 +12674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -12757,7 +12700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -12783,7 +12726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -12809,7 +12752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -12835,7 +12778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -12861,7 +12804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -12887,7 +12830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -12913,7 +12856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -12939,7 +12882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -12965,7 +12908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -12991,7 +12934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -13017,7 +12960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -13043,7 +12986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -13069,7 +13012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -13095,7 +13038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -13121,7 +13064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -13147,7 +13090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -13173,7 +13116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -13199,7 +13142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -13225,7 +13168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -13251,7 +13194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -13277,7 +13220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -13303,7 +13246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -13329,7 +13272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -13355,7 +13298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -13381,7 +13324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -13407,7 +13350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -13433,7 +13376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -13459,7 +13402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -13485,7 +13428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -13511,7 +13454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -13537,7 +13480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -13563,7 +13506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -13589,7 +13532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -13615,7 +13558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -13641,7 +13584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -13667,7 +13610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -13693,7 +13636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -13719,7 +13662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -13745,7 +13688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -13771,7 +13714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -13797,7 +13740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -13823,7 +13766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -13849,7 +13792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -13875,7 +13818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -13901,7 +13844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -13927,7 +13870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -13953,7 +13896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -13979,7 +13922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -14005,7 +13948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -14031,7 +13974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -14057,7 +14000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -14083,7 +14026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -14109,7 +14052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -14135,7 +14078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -14161,7 +14104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -14187,7 +14130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -14213,7 +14156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -14239,7 +14182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -14265,7 +14208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -14291,7 +14234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -14317,7 +14260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -14343,7 +14286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -14369,7 +14312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -14395,7 +14338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -14421,7 +14364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -14447,7 +14390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -14473,7 +14416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -14499,7 +14442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -14525,7 +14468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -14551,7 +14494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -14577,7 +14520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -14603,7 +14546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -14629,7 +14572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -14655,7 +14598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -14681,7 +14624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -14707,7 +14650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -14733,7 +14676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -14759,7 +14702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -14785,7 +14728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -14811,7 +14754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -14837,7 +14780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -14863,7 +14806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -14889,7 +14832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -14915,7 +14858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -14941,7 +14884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -14967,7 +14910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -14993,7 +14936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -15019,7 +14962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -15045,7 +14988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -15071,7 +15014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -15097,7 +15040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -15123,7 +15066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -15149,7 +15092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -15175,7 +15118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -15201,7 +15144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -15227,7 +15170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -15253,7 +15196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -15279,7 +15222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -15305,7 +15248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -15331,7 +15274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -15357,7 +15300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -15383,7 +15326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -15409,7 +15352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -15435,7 +15378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -15461,7 +15404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -15487,7 +15430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -15513,7 +15456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -15539,7 +15482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -15565,7 +15508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -15591,7 +15534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -15617,7 +15560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -15643,7 +15586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -15669,7 +15612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -15695,7 +15638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -15721,7 +15664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -15747,7 +15690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -15773,7 +15716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -15799,7 +15742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -15825,7 +15768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -15851,7 +15794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -15877,7 +15820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -15903,7 +15846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -15929,7 +15872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -15955,7 +15898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -15981,7 +15924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -16007,7 +15950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -16033,7 +15976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -16059,7 +16002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -16085,7 +16028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -16111,7 +16054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -16137,7 +16080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -16163,7 +16106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -16189,7 +16132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -16215,7 +16158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -16241,7 +16184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -16267,7 +16210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -16293,7 +16236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -16319,7 +16262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -16345,7 +16288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -16371,7 +16314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -16397,7 +16340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -16423,7 +16366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -16449,7 +16392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -16475,7 +16418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -16501,7 +16444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -16527,7 +16470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -16553,7 +16496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -16579,7 +16522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -16605,7 +16548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -16631,7 +16574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -16657,7 +16600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -16683,7 +16626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -16709,7 +16652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -16735,7 +16678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -16761,7 +16704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -16787,7 +16730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -16813,7 +16756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -16839,7 +16782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -16865,7 +16808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -16891,7 +16834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -16917,7 +16860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -16943,7 +16886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -16969,7 +16912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -16995,7 +16938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -17021,7 +16964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -17047,7 +16990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -17073,7 +17016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -17099,7 +17042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -17125,7 +17068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -17151,7 +17094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -17177,7 +17120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -17203,7 +17146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -17229,7 +17172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -17255,7 +17198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -17281,7 +17224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -17307,7 +17250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -17333,7 +17276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -17359,7 +17302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -17385,7 +17328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:8">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -17411,7 +17354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -17437,7 +17380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -17469,20 +17412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="11" max="11" width="9.140625" style="3"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17495,7 +17432,7 @@
       <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -17510,7 +17447,7 @@
       <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -17520,7 +17457,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -17536,7 +17473,7 @@
       <c r="E2">
         <v>7</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>0.8571428571428571</v>
       </c>
       <c r="G2">
@@ -17551,8 +17488,8 @@
       <c r="J2">
         <v>13</v>
       </c>
-      <c r="K2" s="3">
-        <v>0.15384615384615391</v>
+      <c r="K2">
+        <v>0.1538461538461539</v>
       </c>
       <c r="L2">
         <v>187</v>
@@ -17561,7 +17498,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -17577,8 +17514,8 @@
       <c r="E3">
         <v>13</v>
       </c>
-      <c r="F3" s="3">
-        <v>0.23076923076923081</v>
+      <c r="F3">
+        <v>0.2307692307692308</v>
       </c>
       <c r="G3">
         <v>226</v>
@@ -17592,7 +17529,7 @@
       <c r="J3">
         <v>16</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3">
         <v>0.5625</v>
       </c>
       <c r="L3">
@@ -17602,7 +17539,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -17618,7 +17555,7 @@
       <c r="E4">
         <v>25</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>0.52</v>
       </c>
       <c r="G4">
@@ -17633,7 +17570,7 @@
       <c r="J4">
         <v>25</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4">
         <v>0.32</v>
       </c>
       <c r="L4">
@@ -17643,7 +17580,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -17659,7 +17596,7 @@
       <c r="E5">
         <v>28</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>0.6071428571428571</v>
       </c>
       <c r="G5">
@@ -17674,8 +17611,8 @@
       <c r="J5">
         <v>29</v>
       </c>
-      <c r="K5" s="3">
-        <v>0.51724137931034486</v>
+      <c r="K5">
+        <v>0.5172413793103449</v>
       </c>
       <c r="L5">
         <v>222</v>
@@ -17684,7 +17621,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -17700,8 +17637,8 @@
       <c r="E6">
         <v>27</v>
       </c>
-      <c r="F6" s="3">
-        <v>0.88888888888888884</v>
+      <c r="F6">
+        <v>0.8888888888888888</v>
       </c>
       <c r="G6">
         <v>93</v>
@@ -17715,8 +17652,8 @@
       <c r="J6">
         <v>29</v>
       </c>
-      <c r="K6" s="3">
-        <v>0.89655172413793105</v>
+      <c r="K6">
+        <v>0.896551724137931</v>
       </c>
       <c r="L6">
         <v>127</v>
@@ -17725,7 +17662,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -17741,7 +17678,7 @@
       <c r="E7">
         <v>25</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>0.96</v>
       </c>
       <c r="G7">
@@ -17756,8 +17693,8 @@
       <c r="J7">
         <v>26</v>
       </c>
-      <c r="K7" s="3">
-        <v>0.69230769230769229</v>
+      <c r="K7">
+        <v>0.6923076923076923</v>
       </c>
       <c r="L7">
         <v>112</v>
@@ -17766,7 +17703,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -17782,7 +17719,7 @@
       <c r="E8">
         <v>25</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>0.48</v>
       </c>
       <c r="G8">
@@ -17797,8 +17734,8 @@
       <c r="J8">
         <v>24</v>
       </c>
-      <c r="K8" s="3">
-        <v>0.70833333333333337</v>
+      <c r="K8">
+        <v>0.7083333333333334</v>
       </c>
       <c r="L8">
         <v>212</v>
@@ -17807,7 +17744,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -17823,7 +17760,7 @@
       <c r="E9">
         <v>28</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>0.5357142857142857</v>
       </c>
       <c r="G9">
@@ -17838,8 +17775,8 @@
       <c r="J9">
         <v>27</v>
       </c>
-      <c r="K9" s="3">
-        <v>0.85185185185185186</v>
+      <c r="K9">
+        <v>0.8518518518518519</v>
       </c>
       <c r="L9">
         <v>182</v>
@@ -17848,7 +17785,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -17864,8 +17801,8 @@
       <c r="E10">
         <v>14</v>
       </c>
-      <c r="F10" s="3">
-        <v>0.42857142857142849</v>
+      <c r="F10">
+        <v>0.4285714285714285</v>
       </c>
       <c r="G10">
         <v>167</v>
@@ -17879,7 +17816,7 @@
       <c r="J10">
         <v>8</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10">
         <v>0.75</v>
       </c>
       <c r="L10">
@@ -17889,7 +17826,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -17905,7 +17842,7 @@
       <c r="E11">
         <v>14</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11">
         <v>0.7857142857142857</v>
       </c>
       <c r="G11">
@@ -17920,8 +17857,8 @@
       <c r="J11">
         <v>13</v>
       </c>
-      <c r="K11" s="3">
-        <v>0.92307692307692313</v>
+      <c r="K11">
+        <v>0.9230769230769231</v>
       </c>
       <c r="L11">
         <v>207</v>
@@ -17930,7 +17867,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -17946,8 +17883,8 @@
       <c r="E12">
         <v>11</v>
       </c>
-      <c r="F12" s="3">
-        <v>0.36363636363636359</v>
+      <c r="F12">
+        <v>0.3636363636363636</v>
       </c>
       <c r="G12">
         <v>311</v>
@@ -17961,8 +17898,8 @@
       <c r="J12">
         <v>11</v>
       </c>
-      <c r="K12" s="3">
-        <v>0.72727272727272729</v>
+      <c r="K12">
+        <v>0.7272727272727273</v>
       </c>
       <c r="L12">
         <v>212</v>
@@ -17971,7 +17908,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -17987,8 +17924,8 @@
       <c r="E13">
         <v>9</v>
       </c>
-      <c r="F13" s="3">
-        <v>0.44444444444444442</v>
+      <c r="F13">
+        <v>0.4444444444444444</v>
       </c>
       <c r="G13">
         <v>191</v>
@@ -18002,8 +17939,8 @@
       <c r="J13">
         <v>13</v>
       </c>
-      <c r="K13" s="3">
-        <v>0.23076923076923081</v>
+      <c r="K13">
+        <v>0.2307692307692308</v>
       </c>
       <c r="L13">
         <v>215</v>
@@ -18012,7 +17949,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -18028,7 +17965,7 @@
       <c r="E14">
         <v>16</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>0.1875</v>
       </c>
       <c r="G14">
@@ -18043,7 +17980,7 @@
       <c r="J14">
         <v>14</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14">
         <v>0.2142857142857143</v>
       </c>
       <c r="L14">
@@ -18053,7 +17990,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -18069,7 +18006,7 @@
       <c r="E15">
         <v>14</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15">
         <v>0.2857142857142857</v>
       </c>
       <c r="G15">
@@ -18084,8 +18021,8 @@
       <c r="J15">
         <v>11</v>
       </c>
-      <c r="K15" s="3">
-        <v>0.45454545454545447</v>
+      <c r="K15">
+        <v>0.4545454545454545</v>
       </c>
       <c r="L15">
         <v>272</v>
@@ -18094,7 +18031,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -18110,8 +18047,8 @@
       <c r="E16">
         <v>26</v>
       </c>
-      <c r="F16" s="3">
-        <v>0.53846153846153844</v>
+      <c r="F16">
+        <v>0.5384615384615384</v>
       </c>
       <c r="G16">
         <v>158</v>
@@ -18125,7 +18062,7 @@
       <c r="J16">
         <v>28</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16">
         <v>0.7857142857142857</v>
       </c>
       <c r="L16">
@@ -18135,7 +18072,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -18151,7 +18088,7 @@
       <c r="E17">
         <v>24</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17">
         <v>0.5</v>
       </c>
       <c r="G17">
@@ -18166,7 +18103,7 @@
       <c r="J17">
         <v>25</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17">
         <v>0.88</v>
       </c>
       <c r="L17">
@@ -18176,7 +18113,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -18192,8 +18129,8 @@
       <c r="E18">
         <v>151</v>
       </c>
-      <c r="F18" s="3">
-        <v>0.54304635761589404</v>
+      <c r="F18">
+        <v>0.543046357615894</v>
       </c>
       <c r="G18">
         <v>186</v>
@@ -18207,8 +18144,8 @@
       <c r="J18">
         <v>152</v>
       </c>
-      <c r="K18" s="3">
-        <v>0.60526315789473684</v>
+      <c r="K18">
+        <v>0.6052631578947368</v>
       </c>
       <c r="L18">
         <v>191</v>
@@ -18217,7 +18154,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -18233,8 +18170,8 @@
       <c r="E19">
         <v>155</v>
       </c>
-      <c r="F19" s="3">
-        <v>0.58064516129032262</v>
+      <c r="F19">
+        <v>0.5806451612903226</v>
       </c>
       <c r="G19">
         <v>131</v>
@@ -18248,8 +18185,8 @@
       <c r="J19">
         <v>160</v>
       </c>
-      <c r="K19" s="3">
-        <v>0.66874999999999996</v>
+      <c r="K19">
+        <v>0.66875</v>
       </c>
       <c r="L19">
         <v>185</v>
@@ -18258,7 +18195,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -18274,8 +18211,8 @@
       <c r="E20">
         <v>306</v>
       </c>
-      <c r="F20" s="3">
-        <v>0.56209150326797386</v>
+      <c r="F20">
+        <v>0.5620915032679739</v>
       </c>
       <c r="G20">
         <v>158</v>
@@ -18289,8 +18226,8 @@
       <c r="J20">
         <v>312</v>
       </c>
-      <c r="K20" s="3">
-        <v>0.63782051282051277</v>
+      <c r="K20">
+        <v>0.6378205128205128</v>
       </c>
       <c r="L20">
         <v>188</v>
@@ -18301,6 +18238,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>